--- a/outcome/fig_2_national_trend.xlsx
+++ b/outcome/fig_2_national_trend.xlsx
@@ -9223,7 +9223,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.74</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="3">
@@ -9231,7 +9231,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.09</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="4">
@@ -9239,7 +9239,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.97</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="5">
@@ -9247,7 +9247,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.12</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="6">
@@ -9255,7 +9255,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.81</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="7">
@@ -9263,7 +9263,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.94</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="8">
@@ -9271,7 +9271,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.44</v>
+        <v>-10.09</v>
       </c>
     </row>
     <row r="9">
@@ -9279,7 +9279,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.63</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="10">
@@ -9287,7 +9287,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.82</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="11">
@@ -9295,7 +9295,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.85</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12">
@@ -9303,7 +9303,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.63</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="13">
@@ -9311,7 +9311,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.12</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="14">
@@ -9319,7 +9319,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.91</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="15">
@@ -9327,7 +9327,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.44</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16">
@@ -9335,7 +9335,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.56</v>
+        <v>-4.64</v>
       </c>
     </row>
     <row r="17">
@@ -9343,7 +9343,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.89</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18">
@@ -9351,7 +9351,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.17</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="19">
@@ -9359,7 +9359,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.15</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="20">
@@ -9367,7 +9367,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.42</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="21">
@@ -9375,7 +9375,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.79</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="22">
@@ -9383,7 +9383,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>-4.36</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="23">
@@ -9391,7 +9391,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.18</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="24">
@@ -9399,7 +9399,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.29</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25">
@@ -9407,7 +9407,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.37</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="26">
@@ -9415,7 +9415,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>-8.12</v>
+        <v>-10.47</v>
       </c>
     </row>
     <row r="27">
@@ -9423,7 +9423,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>-3.54</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="28">
@@ -9431,7 +9431,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>-2</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="29">
@@ -9439,7 +9439,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.09</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="30">
@@ -9447,7 +9447,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>-7.4</v>
+        <v>-5.22</v>
       </c>
     </row>
     <row r="31">
@@ -9455,7 +9455,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.63</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="32">
@@ -9463,7 +9463,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>-4.8</v>
+        <v>-3.63</v>
       </c>
     </row>
     <row r="33">
@@ -9471,7 +9471,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>-4.68</v>
+        <v>-4.33</v>
       </c>
     </row>
     <row r="34">
@@ -9479,7 +9479,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.39</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="35">
@@ -9487,7 +9487,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.11</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="36">
@@ -9495,7 +9495,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>-3.58</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="37">
@@ -9503,7 +9503,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>-9.84</v>
+        <v>-9.71</v>
       </c>
     </row>
     <row r="38">
@@ -9511,7 +9511,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>-7.97</v>
+        <v>-6.98</v>
       </c>
     </row>
     <row r="39">
@@ -9519,7 +9519,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.52</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="40">
@@ -9527,7 +9527,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>-8.97</v>
+        <v>-7.36</v>
       </c>
     </row>
     <row r="41">
@@ -9535,7 +9535,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>-10.52</v>
+        <v>-8.33</v>
       </c>
     </row>
     <row r="42">
@@ -9543,7 +9543,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>-6.47</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="43">
@@ -9551,7 +9551,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>-2.41</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="44">
@@ -9559,7 +9559,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>-7.27</v>
+        <v>-6.63</v>
       </c>
     </row>
     <row r="45">
@@ -9567,7 +9567,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.4</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="46">
@@ -9575,7 +9575,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>5.12</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="47">
@@ -9583,7 +9583,7 @@
         <v>52</v>
       </c>
       <c r="B47" t="n">
-        <v>-3.1</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="48">
@@ -9591,7 +9591,7 @@
         <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>-3.96</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="49">
@@ -9599,7 +9599,7 @@
         <v>54</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.55</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="50">
@@ -9607,7 +9607,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>-2.35</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="51">
@@ -9615,7 +9615,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="n">
-        <v>-5.56</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="52">
@@ -9623,7 +9623,7 @@
         <v>57</v>
       </c>
       <c r="B52" t="n">
-        <v>0.18</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="53">
@@ -9631,7 +9631,7 @@
         <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>-4.27</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="54">
@@ -9639,7 +9639,7 @@
         <v>59</v>
       </c>
       <c r="B54" t="n">
-        <v>-3.71</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="55">
@@ -9647,7 +9647,7 @@
         <v>60</v>
       </c>
       <c r="B55" t="n">
-        <v>-7.9</v>
+        <v>-7.49</v>
       </c>
     </row>
     <row r="56">
@@ -9655,7 +9655,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="n">
-        <v>-4.86</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="57">
@@ -9663,7 +9663,7 @@
         <v>62</v>
       </c>
       <c r="B57" t="n">
-        <v>-12.15</v>
+        <v>-14.22</v>
       </c>
     </row>
     <row r="58">
@@ -9671,7 +9671,7 @@
         <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>-10.08</v>
+        <v>-12.72</v>
       </c>
     </row>
     <row r="59">
@@ -9679,7 +9679,7 @@
         <v>64</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.78</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60">
@@ -9687,7 +9687,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.92</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="61">
@@ -9695,7 +9695,7 @@
         <v>66</v>
       </c>
       <c r="B61" t="n">
-        <v>1.13</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62">
@@ -9703,7 +9703,7 @@
         <v>67</v>
       </c>
       <c r="B62" t="n">
-        <v>-4.44</v>
+        <v>-4.72</v>
       </c>
     </row>
     <row r="63">
@@ -9711,7 +9711,7 @@
         <v>68</v>
       </c>
       <c r="B63" t="n">
-        <v>-6.02</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="64">
@@ -9719,7 +9719,7 @@
         <v>69</v>
       </c>
       <c r="B64" t="n">
-        <v>-2.83</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="65">
@@ -9727,7 +9727,7 @@
         <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>1.26</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="66">
@@ -9735,7 +9735,7 @@
         <v>71</v>
       </c>
       <c r="B66" t="n">
-        <v>-6.54</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="67">
@@ -9743,7 +9743,7 @@
         <v>72</v>
       </c>
       <c r="B67" t="n">
-        <v>-4.66</v>
+        <v>-4.23</v>
       </c>
     </row>
     <row r="68">
@@ -9751,7 +9751,7 @@
         <v>73</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.58</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="69">
@@ -9759,7 +9759,7 @@
         <v>74</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="70">
@@ -9767,7 +9767,7 @@
         <v>75</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.16</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="71">
@@ -9775,7 +9775,7 @@
         <v>76</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.65</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="72">
@@ -9783,7 +9783,7 @@
         <v>77</v>
       </c>
       <c r="B72" t="n">
-        <v>-2.06</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="73">
@@ -9791,7 +9791,7 @@
         <v>78</v>
       </c>
       <c r="B73" t="n">
-        <v>-2.86</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="74">
@@ -9799,7 +9799,7 @@
         <v>79</v>
       </c>
       <c r="B74" t="n">
-        <v>-2.01</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="75">
@@ -9807,7 +9807,7 @@
         <v>80</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.74</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="76">
@@ -9815,7 +9815,7 @@
         <v>81</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.09</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="77">
@@ -9823,7 +9823,7 @@
         <v>82</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.03</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="78">
@@ -9831,7 +9831,7 @@
         <v>83</v>
       </c>
       <c r="B78" t="n">
-        <v>0.78</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="79">
@@ -9839,7 +9839,7 @@
         <v>84</v>
       </c>
       <c r="B79" t="n">
-        <v>-5.09</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="80">
@@ -9847,7 +9847,7 @@
         <v>85</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.51</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="81">
@@ -9855,7 +9855,7 @@
         <v>86</v>
       </c>
       <c r="B81" t="n">
-        <v>-3.88</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="82">
@@ -9863,7 +9863,7 @@
         <v>87</v>
       </c>
       <c r="B82" t="n">
-        <v>-5.96</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="83">
@@ -9871,7 +9871,7 @@
         <v>88</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.81</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="84">
@@ -9879,7 +9879,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.29</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="85">
@@ -9887,7 +9887,7 @@
         <v>90</v>
       </c>
       <c r="B85" t="n">
-        <v>-2.26</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="86">
@@ -9895,7 +9895,7 @@
         <v>91</v>
       </c>
       <c r="B86" t="n">
-        <v>-2.21</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="87">
@@ -9903,7 +9903,7 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.46</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="88">
@@ -9911,7 +9911,7 @@
         <v>93</v>
       </c>
       <c r="B88" t="n">
-        <v>-9.49</v>
+        <v>-4.46</v>
       </c>
     </row>
     <row r="89">
@@ -9919,7 +9919,7 @@
         <v>94</v>
       </c>
       <c r="B89" t="n">
-        <v>-3.07</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="90">
@@ -9927,7 +9927,7 @@
         <v>95</v>
       </c>
       <c r="B90" t="n">
-        <v>-5.07</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="91">
@@ -9935,7 +9935,7 @@
         <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>-2.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="92">
@@ -9943,7 +9943,7 @@
         <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>-4.2</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="93">
@@ -9951,7 +9951,7 @@
         <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>-2.5</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="94">
@@ -9959,7 +9959,7 @@
         <v>99</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.79</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="95">
@@ -9967,7 +9967,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="n">
-        <v>0.54</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="96">
@@ -9975,7 +9975,7 @@
         <v>101</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.83</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="97">
@@ -9983,7 +9983,7 @@
         <v>102</v>
       </c>
       <c r="B97" t="n">
-        <v>-3.4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="98">
@@ -9991,7 +9991,7 @@
         <v>103</v>
       </c>
       <c r="B98" t="n">
-        <v>-5.9</v>
+        <v>-3.91</v>
       </c>
     </row>
     <row r="99">
@@ -9999,7 +9999,7 @@
         <v>104</v>
       </c>
       <c r="B99" t="n">
-        <v>-2.15</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="100">
@@ -10007,7 +10007,7 @@
         <v>105</v>
       </c>
       <c r="B100" t="n">
-        <v>-4.57</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="101">
@@ -10015,7 +10015,7 @@
         <v>106</v>
       </c>
       <c r="B101" t="n">
-        <v>-2.62</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="102">
@@ -10023,7 +10023,7 @@
         <v>107</v>
       </c>
       <c r="B102" t="n">
-        <v>-2.32</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103">
@@ -10031,7 +10031,7 @@
         <v>108</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.25</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="104">
@@ -10039,7 +10039,7 @@
         <v>109</v>
       </c>
       <c r="B104" t="n">
-        <v>-4.1</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="105">
@@ -10047,7 +10047,7 @@
         <v>110</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.43</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="106">
@@ -10055,7 +10055,7 @@
         <v>111</v>
       </c>
       <c r="B106" t="n">
-        <v>-1.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="107">
@@ -10063,7 +10063,7 @@
         <v>112</v>
       </c>
       <c r="B107" t="n">
-        <v>-4.43</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="108">
@@ -10071,7 +10071,7 @@
         <v>113</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.14</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="109">
@@ -10079,7 +10079,7 @@
         <v>114</v>
       </c>
       <c r="B109" t="n">
-        <v>-2.98</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="110">
@@ -10087,7 +10087,7 @@
         <v>115</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.15</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="111">
@@ -10095,7 +10095,7 @@
         <v>116</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.95</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="112">
@@ -10103,7 +10103,7 @@
         <v>117</v>
       </c>
       <c r="B112" t="n">
-        <v>-3.77</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="113">
@@ -10111,7 +10111,7 @@
         <v>118</v>
       </c>
       <c r="B113" t="n">
-        <v>-4.6</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="114">
@@ -10119,7 +10119,7 @@
         <v>119</v>
       </c>
       <c r="B114" t="n">
-        <v>-2.69</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="115">
@@ -10127,23 +10127,21 @@
         <v>120</v>
       </c>
       <c r="B115" t="n">
-        <v>-4.39</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
         <v>121</v>
       </c>
-      <c r="B116" t="n">
-        <v>-0.55</v>
-      </c>
+      <c r="B116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
         <v>122</v>
       </c>
       <c r="B117" t="n">
-        <v>-2.39</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="118">
@@ -10151,7 +10149,7 @@
         <v>123</v>
       </c>
       <c r="B118" t="n">
-        <v>-4.71</v>
+        <v>-4.14</v>
       </c>
     </row>
     <row r="119">
@@ -10159,7 +10157,7 @@
         <v>124</v>
       </c>
       <c r="B119" t="n">
-        <v>-3.25</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="120">
@@ -10167,7 +10165,7 @@
         <v>125</v>
       </c>
       <c r="B120" t="n">
-        <v>0.93</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="121">
@@ -10175,7 +10173,7 @@
         <v>126</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.1</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="122">
@@ -10183,39 +10181,35 @@
         <v>127</v>
       </c>
       <c r="B122" t="n">
-        <v>3.54</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
         <v>128</v>
       </c>
-      <c r="B123" t="n">
-        <v>-0.49</v>
-      </c>
+      <c r="B123"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
         <v>129</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.02</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
         <v>130</v>
       </c>
-      <c r="B125" t="n">
-        <v>-4.71</v>
-      </c>
+      <c r="B125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
         <v>131</v>
       </c>
       <c r="B126" t="n">
-        <v>-1.86</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="127">
@@ -10223,7 +10217,7 @@
         <v>132</v>
       </c>
       <c r="B127" t="n">
-        <v>-4.89</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="128">
@@ -10231,7 +10225,7 @@
         <v>133</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.21</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="129">
@@ -10239,7 +10233,7 @@
         <v>134</v>
       </c>
       <c r="B129" t="n">
-        <v>-2.63</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="130">
@@ -10247,7 +10241,7 @@
         <v>135</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.33</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="131">
@@ -10255,7 +10249,7 @@
         <v>136</v>
       </c>
       <c r="B131" t="n">
-        <v>-10.62</v>
+        <v>-13.29</v>
       </c>
     </row>
     <row r="132">
@@ -10263,7 +10257,7 @@
         <v>137</v>
       </c>
       <c r="B132" t="n">
-        <v>-5.08</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="133">
@@ -10271,7 +10265,7 @@
         <v>138</v>
       </c>
       <c r="B133" t="n">
-        <v>3.51</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="134">
@@ -10279,7 +10273,7 @@
         <v>139</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.78</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="135">
@@ -10287,7 +10281,7 @@
         <v>140</v>
       </c>
       <c r="B135" t="n">
-        <v>-3.5</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="136">
@@ -10295,7 +10289,7 @@
         <v>141</v>
       </c>
       <c r="B136" t="n">
-        <v>-5.37</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="137">
@@ -10303,7 +10297,7 @@
         <v>142</v>
       </c>
       <c r="B137" t="n">
-        <v>-3.19</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="138">
@@ -10311,7 +10305,7 @@
         <v>143</v>
       </c>
       <c r="B138" t="n">
-        <v>-5.4</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="139">
@@ -10319,7 +10313,7 @@
         <v>144</v>
       </c>
       <c r="B139" t="n">
-        <v>-1.47</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="140">
@@ -10327,7 +10321,7 @@
         <v>145</v>
       </c>
       <c r="B140" t="n">
-        <v>0.2</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="141">
@@ -10335,7 +10329,7 @@
         <v>146</v>
       </c>
       <c r="B141" t="n">
-        <v>-3.32</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="142">
@@ -10343,7 +10337,7 @@
         <v>147</v>
       </c>
       <c r="B142" t="n">
-        <v>-8</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="143">
@@ -10351,7 +10345,7 @@
         <v>148</v>
       </c>
       <c r="B143" t="n">
-        <v>-2.32</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="144">
@@ -10359,7 +10353,7 @@
         <v>149</v>
       </c>
       <c r="B144" t="n">
-        <v>0.55</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="145">
@@ -10367,7 +10361,7 @@
         <v>150</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="146">
@@ -10375,7 +10369,7 @@
         <v>151</v>
       </c>
       <c r="B146" t="n">
-        <v>-3.89</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="147">
@@ -10383,7 +10377,7 @@
         <v>152</v>
       </c>
       <c r="B147" t="n">
-        <v>-10.54</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="148">
@@ -10391,7 +10385,7 @@
         <v>153</v>
       </c>
       <c r="B148" t="n">
-        <v>-2.08</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="149">
@@ -10399,7 +10393,7 @@
         <v>154</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.17</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="150">
@@ -10407,7 +10401,7 @@
         <v>155</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.88</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="151">
@@ -10415,7 +10409,7 @@
         <v>156</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="152">
@@ -10423,7 +10417,7 @@
         <v>157</v>
       </c>
       <c r="B152" t="n">
-        <v>0.11</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="153">
@@ -10431,7 +10425,7 @@
         <v>158</v>
       </c>
       <c r="B153" t="n">
-        <v>-5.62</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="154">
@@ -10439,7 +10433,7 @@
         <v>159</v>
       </c>
       <c r="B154" t="n">
-        <v>1.85</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="155">
@@ -10447,7 +10441,7 @@
         <v>160</v>
       </c>
       <c r="B155" t="n">
-        <v>-3.5</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="156">
@@ -10455,7 +10449,7 @@
         <v>161</v>
       </c>
       <c r="B156" t="n">
-        <v>-2.56</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="157">
@@ -10463,7 +10457,7 @@
         <v>162</v>
       </c>
       <c r="B157" t="n">
-        <v>-2.08</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="158">
@@ -10471,7 +10465,7 @@
         <v>163</v>
       </c>
       <c r="B158" t="n">
-        <v>-3.64</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="159">
@@ -10479,7 +10473,7 @@
         <v>164</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.9</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="160">
@@ -10487,7 +10481,7 @@
         <v>165</v>
       </c>
       <c r="B160" t="n">
-        <v>-2.24</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="161">
@@ -10495,7 +10489,7 @@
         <v>166</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.44</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="162">
@@ -10503,7 +10497,7 @@
         <v>167</v>
       </c>
       <c r="B162" t="n">
-        <v>0.16</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="163">
@@ -10511,7 +10505,7 @@
         <v>168</v>
       </c>
       <c r="B163" t="n">
-        <v>-6.26</v>
+        <v>-3.56</v>
       </c>
     </row>
     <row r="164">
@@ -10519,7 +10513,7 @@
         <v>169</v>
       </c>
       <c r="B164" t="n">
-        <v>-1.61</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="165">
@@ -10527,7 +10521,7 @@
         <v>170</v>
       </c>
       <c r="B165" t="n">
-        <v>-2.48</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="166">
@@ -10535,7 +10529,7 @@
         <v>171</v>
       </c>
       <c r="B166" t="n">
-        <v>-4.94</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="167">
@@ -10543,7 +10537,7 @@
         <v>172</v>
       </c>
       <c r="B167" t="n">
-        <v>-4.69</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="168">
@@ -10551,7 +10545,7 @@
         <v>173</v>
       </c>
       <c r="B168" t="n">
-        <v>-3.07</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="169">
@@ -10559,7 +10553,7 @@
         <v>174</v>
       </c>
       <c r="B169" t="n">
-        <v>0.37</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="170">
@@ -10567,7 +10561,7 @@
         <v>175</v>
       </c>
       <c r="B170" t="n">
-        <v>-3.44</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="171">
@@ -10575,7 +10569,7 @@
         <v>176</v>
       </c>
       <c r="B171" t="n">
-        <v>-5.85</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="172">
@@ -10583,7 +10577,7 @@
         <v>177</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.17</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="173">
@@ -10591,7 +10585,7 @@
         <v>178</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.41</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="174">
@@ -10599,7 +10593,7 @@
         <v>179</v>
       </c>
       <c r="B174" t="n">
-        <v>1.03</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="175">
@@ -10607,7 +10601,7 @@
         <v>180</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.07</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="176">
@@ -10615,7 +10609,7 @@
         <v>181</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.64</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="177">
@@ -10623,7 +10617,7 @@
         <v>182</v>
       </c>
       <c r="B177" t="n">
-        <v>-4.26</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="178">
@@ -10631,7 +10625,7 @@
         <v>183</v>
       </c>
       <c r="B178" t="n">
-        <v>0.45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
@@ -10639,7 +10633,7 @@
         <v>184</v>
       </c>
       <c r="B179" t="n">
-        <v>-4.33</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="180">
@@ -10647,7 +10641,7 @@
         <v>185</v>
       </c>
       <c r="B180" t="n">
-        <v>-5.11</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="181">
@@ -10655,7 +10649,7 @@
         <v>186</v>
       </c>
       <c r="B181" t="n">
-        <v>-5.72</v>
+        <v>-3.53</v>
       </c>
     </row>
     <row r="182">
@@ -10663,7 +10657,7 @@
         <v>187</v>
       </c>
       <c r="B182" t="n">
-        <v>-2.01</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="183">
@@ -10671,7 +10665,7 @@
         <v>188</v>
       </c>
       <c r="B183" t="n">
-        <v>-4.1</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="184">
@@ -10679,7 +10673,7 @@
         <v>189</v>
       </c>
       <c r="B184" t="n">
-        <v>-10.54</v>
+        <v>-9.24</v>
       </c>
     </row>
     <row r="185">
@@ -10687,7 +10681,7 @@
         <v>190</v>
       </c>
       <c r="B185" t="n">
-        <v>3.32</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="186">
@@ -10695,7 +10689,7 @@
         <v>191</v>
       </c>
       <c r="B186" t="n">
-        <v>0.67</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="187">
@@ -10703,7 +10697,7 @@
         <v>192</v>
       </c>
       <c r="B187" t="n">
-        <v>-4.93</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188">
@@ -10711,7 +10705,7 @@
         <v>193</v>
       </c>
       <c r="B188" t="n">
-        <v>-3.03</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="189">
@@ -10719,7 +10713,7 @@
         <v>194</v>
       </c>
       <c r="B189" t="n">
-        <v>-2.6</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="190">
@@ -10727,7 +10721,7 @@
         <v>195</v>
       </c>
       <c r="B190" t="n">
-        <v>-5.79</v>
+        <v>-3.56</v>
       </c>
     </row>
     <row r="191">
@@ -10735,7 +10729,7 @@
         <v>196</v>
       </c>
       <c r="B191" t="n">
-        <v>-2.75</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="192">
@@ -10743,7 +10737,7 @@
         <v>197</v>
       </c>
       <c r="B192" t="n">
-        <v>-2.35</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="193">
@@ -10751,7 +10745,7 @@
         <v>198</v>
       </c>
       <c r="B193" t="n">
-        <v>-4.24</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="194">
@@ -10759,7 +10753,7 @@
         <v>199</v>
       </c>
       <c r="B194" t="n">
-        <v>-2.33</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="195">
@@ -10767,7 +10761,7 @@
         <v>200</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.81</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="196">
@@ -10775,7 +10769,7 @@
         <v>201</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.69</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="197">
@@ -10783,7 +10777,7 @@
         <v>202</v>
       </c>
       <c r="B197" t="n">
-        <v>0.44</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="198">
@@ -10791,7 +10785,7 @@
         <v>203</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.98</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="199">
@@ -10799,7 +10793,7 @@
         <v>204</v>
       </c>
       <c r="B199" t="n">
-        <v>-1.1</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="200">
@@ -10807,7 +10801,7 @@
         <v>205</v>
       </c>
       <c r="B200" t="n">
-        <v>-5.63</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="201">
@@ -10815,7 +10809,7 @@
         <v>206</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.68</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="202">
@@ -10823,7 +10817,7 @@
         <v>207</v>
       </c>
       <c r="B202" t="n">
-        <v>-1.74</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="203">
@@ -10831,7 +10825,7 @@
         <v>208</v>
       </c>
       <c r="B203" t="n">
-        <v>-6.24</v>
+        <v>-4.58</v>
       </c>
     </row>
     <row r="204">
@@ -10839,7 +10833,7 @@
         <v>209</v>
       </c>
       <c r="B204" t="n">
-        <v>-6.69</v>
+        <v>-8.17</v>
       </c>
     </row>
     <row r="205">
@@ -10847,7 +10841,7 @@
         <v>210</v>
       </c>
       <c r="B205" t="n">
-        <v>-3.13</v>
+        <v>-0.28</v>
       </c>
     </row>
   </sheetData>
@@ -10877,7 +10871,7 @@
         <v>97</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.05</v>
+        <v>-3.21</v>
       </c>
     </row>
     <row r="3">
@@ -10885,23 +10879,21 @@
         <v>76</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.37</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>147</v>
       </c>
-      <c r="B4" t="n">
-        <v>-6.17</v>
-      </c>
+      <c r="B4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>176</v>
       </c>
       <c r="B5" t="n">
-        <v>-10.63</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="6">
@@ -10909,7 +10901,7 @@
         <v>188</v>
       </c>
       <c r="B6" t="n">
-        <v>-7.15</v>
+        <v>-4.32</v>
       </c>
     </row>
     <row r="7">
@@ -10917,7 +10909,7 @@
         <v>142</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.13</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="8">
@@ -10925,7 +10917,7 @@
         <v>161</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.58</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="9">
@@ -10933,7 +10925,7 @@
         <v>168</v>
       </c>
       <c r="B9" t="n">
-        <v>-8.15</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="10">
@@ -10941,7 +10933,7 @@
         <v>93</v>
       </c>
       <c r="B10" t="n">
-        <v>-9.19</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="11">
@@ -10949,7 +10941,7 @@
         <v>122</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.88</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="12">
@@ -10957,23 +10949,21 @@
         <v>207</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.39</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>130</v>
       </c>
-      <c r="B13" t="n">
-        <v>-6.54</v>
-      </c>
+      <c r="B13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>90</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.21</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="15">
@@ -10981,7 +10971,7 @@
         <v>171</v>
       </c>
       <c r="B15" t="n">
-        <v>-5.26</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="16">
@@ -10989,7 +10979,7 @@
         <v>149</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.35</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="17">
@@ -10997,7 +10987,7 @@
         <v>180</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.34</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="18">
@@ -11005,7 +10995,7 @@
         <v>162</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.65</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="19">
@@ -11013,7 +11003,7 @@
         <v>95</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.09</v>
+        <v>-14.97</v>
       </c>
     </row>
     <row r="20">
@@ -11021,7 +11011,7 @@
         <v>169</v>
       </c>
       <c r="B20" t="n">
-        <v>-4.98</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="21">
@@ -11029,7 +11019,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.32</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="22">
@@ -11037,7 +11027,7 @@
         <v>99</v>
       </c>
       <c r="B22" t="n">
-        <v>0.78</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="23">
@@ -11045,7 +11035,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>-4.72</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="24">
@@ -11053,7 +11043,7 @@
         <v>78</v>
       </c>
       <c r="B24" t="n">
-        <v>-2.88</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="25">
@@ -11061,7 +11051,7 @@
         <v>140</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.87</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="26">
@@ -11069,7 +11059,7 @@
         <v>20</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.83</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="27">
@@ -11077,7 +11067,7 @@
         <v>40</v>
       </c>
       <c r="B27" t="n">
-        <v>-3.27</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="28">
@@ -11085,7 +11075,7 @@
         <v>138</v>
       </c>
       <c r="B28" t="n">
-        <v>2.29</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="29">
@@ -11093,7 +11083,7 @@
         <v>81</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.02</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="30">
@@ -11101,7 +11091,7 @@
         <v>19</v>
       </c>
       <c r="B30" t="n">
-        <v>-9.5</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="31">
@@ -11109,7 +11099,7 @@
         <v>181</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.64</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="32">
@@ -11117,7 +11107,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="n">
-        <v>-4.85</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="33">
@@ -11125,7 +11115,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>-5.06</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="34">
@@ -11133,7 +11123,7 @@
         <v>41</v>
       </c>
       <c r="B34" t="n">
-        <v>-7.37</v>
+        <v>-6.73</v>
       </c>
     </row>
     <row r="35">
@@ -11141,7 +11131,7 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>-10.54</v>
+        <v>-9.34</v>
       </c>
     </row>
     <row r="36">
@@ -11149,7 +11139,7 @@
         <v>105</v>
       </c>
       <c r="B36" t="n">
-        <v>-5.99</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="37">
@@ -11157,7 +11147,7 @@
         <v>82</v>
       </c>
       <c r="B37" t="n">
-        <v>-4.1</v>
+        <v>-3.43</v>
       </c>
     </row>
     <row r="38">
@@ -11165,7 +11155,7 @@
         <v>80</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.4</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="39">
@@ -11173,7 +11163,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.41</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="40">
@@ -11181,23 +11171,21 @@
         <v>23</v>
       </c>
       <c r="B40" t="n">
-        <v>-4.37</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>126</v>
       </c>
-      <c r="B41" t="n">
-        <v>-2.54</v>
-      </c>
+      <c r="B41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>109</v>
       </c>
       <c r="B42" t="n">
-        <v>-4.76</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="43">
@@ -11205,7 +11193,7 @@
         <v>108</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.67</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="44">
@@ -11213,7 +11201,7 @@
         <v>29</v>
       </c>
       <c r="B44" t="n">
-        <v>-3.96</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="45">
@@ -11221,7 +11209,7 @@
         <v>137</v>
       </c>
       <c r="B45" t="n">
-        <v>-4.31</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="46">
@@ -11229,7 +11217,7 @@
         <v>173</v>
       </c>
       <c r="B46" t="n">
-        <v>-9.83</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="47">
@@ -11237,7 +11225,7 @@
         <v>201</v>
       </c>
       <c r="B47" t="n">
-        <v>-5.44</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="48">
@@ -11245,7 +11233,7 @@
         <v>139</v>
       </c>
       <c r="B48" t="n">
-        <v>-5.08</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="49">
@@ -11253,23 +11241,21 @@
         <v>205</v>
       </c>
       <c r="B49" t="n">
-        <v>-7.39</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>77</v>
       </c>
-      <c r="B50" t="n">
-        <v>-3.02</v>
-      </c>
+      <c r="B50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>164</v>
       </c>
       <c r="B51" t="n">
-        <v>-3.23</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="52">
@@ -11277,7 +11263,7 @@
         <v>102</v>
       </c>
       <c r="B52" t="n">
-        <v>-4.79</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="53">
@@ -11285,7 +11271,7 @@
         <v>210</v>
       </c>
       <c r="B53" t="n">
-        <v>-3.58</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="54">
@@ -11293,7 +11279,7 @@
         <v>9</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.34</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="55">
@@ -11301,23 +11287,21 @@
         <v>44</v>
       </c>
       <c r="B55" t="n">
-        <v>-2.4</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>43</v>
       </c>
-      <c r="B56" t="n">
-        <v>-10.24</v>
-      </c>
+      <c r="B56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>148</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.74</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="58">
@@ -11325,7 +11309,7 @@
         <v>45</v>
       </c>
       <c r="B58" t="n">
-        <v>-8.2</v>
+        <v>-7.47</v>
       </c>
     </row>
     <row r="59">
@@ -11333,7 +11317,7 @@
         <v>172</v>
       </c>
       <c r="B59" t="n">
-        <v>-7.09</v>
+        <v>-4.41</v>
       </c>
     </row>
     <row r="60">
@@ -11341,7 +11325,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="n">
-        <v>1.54</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="61">
@@ -11349,23 +11333,21 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-7.89</v>
+        <v>-8.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>150</v>
       </c>
-      <c r="B62" t="n">
-        <v>-1.32</v>
-      </c>
+      <c r="B62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>13</v>
       </c>
       <c r="B63" t="n">
-        <v>-8.89</v>
+        <v>-12.16</v>
       </c>
     </row>
     <row r="64">
@@ -11373,7 +11355,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.98</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="65">
@@ -11381,7 +11363,7 @@
         <v>48</v>
       </c>
       <c r="B65" t="n">
-        <v>-2.44</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="66">
@@ -11389,7 +11371,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="n">
-        <v>-4.68</v>
+        <v>-5.21</v>
       </c>
     </row>
     <row r="67">
@@ -11397,7 +11379,7 @@
         <v>35</v>
       </c>
       <c r="B67" t="n">
-        <v>-7.67</v>
+        <v>-6.72</v>
       </c>
     </row>
     <row r="68">
@@ -11405,7 +11387,7 @@
         <v>49</v>
       </c>
       <c r="B68" t="n">
-        <v>-7.54</v>
+        <v>-7.03</v>
       </c>
     </row>
     <row r="69">
@@ -11413,7 +11395,7 @@
         <v>10</v>
       </c>
       <c r="B69" t="n">
-        <v>-4.44</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="70">
@@ -11421,7 +11403,7 @@
         <v>143</v>
       </c>
       <c r="B70" t="n">
-        <v>-8.55</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="71">
@@ -11429,7 +11411,7 @@
         <v>15</v>
       </c>
       <c r="B71" t="n">
-        <v>-2.45</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="72">
@@ -11437,7 +11419,7 @@
         <v>27</v>
       </c>
       <c r="B72" t="n">
-        <v>-6.04</v>
+        <v>-4.79</v>
       </c>
     </row>
     <row r="73">
@@ -11445,7 +11427,7 @@
         <v>36</v>
       </c>
       <c r="B73" t="n">
-        <v>-5.27</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="74">
@@ -11453,7 +11435,7 @@
         <v>185</v>
       </c>
       <c r="B74" t="n">
-        <v>-8.87</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="75">
@@ -11461,7 +11443,7 @@
         <v>141</v>
       </c>
       <c r="B75" t="n">
-        <v>-8.7</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="76">
@@ -11469,7 +11451,7 @@
         <v>70</v>
       </c>
       <c r="B76" t="n">
-        <v>1.22</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="77">
@@ -11477,7 +11459,7 @@
         <v>68</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.71</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="78">
@@ -11485,7 +11467,7 @@
         <v>202</v>
       </c>
       <c r="B78" t="n">
-        <v>0.16</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="79">
@@ -11493,7 +11475,7 @@
         <v>193</v>
       </c>
       <c r="B79" t="n">
-        <v>-4.59</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="80">
@@ -11501,7 +11483,7 @@
         <v>177</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.74</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="81">
@@ -11509,31 +11491,27 @@
         <v>151</v>
       </c>
       <c r="B81" t="n">
-        <v>-3.83</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>125</v>
       </c>
-      <c r="B82" t="n">
-        <v>-4.87</v>
-      </c>
+      <c r="B82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>69</v>
       </c>
-      <c r="B83" t="n">
-        <v>-2.97</v>
-      </c>
+      <c r="B83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>52</v>
       </c>
       <c r="B84" t="n">
-        <v>-4.9</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="85">
@@ -11541,7 +11519,7 @@
         <v>73</v>
       </c>
       <c r="B85" t="n">
-        <v>-2.6</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="86">
@@ -11549,7 +11527,7 @@
         <v>110</v>
       </c>
       <c r="B86" t="n">
-        <v>-2.26</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="87">
@@ -11557,7 +11535,7 @@
         <v>199</v>
       </c>
       <c r="B87" t="n">
-        <v>-4.58</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="88">
@@ -11565,7 +11543,7 @@
         <v>32</v>
       </c>
       <c r="B88" t="n">
-        <v>-4.26</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="89">
@@ -11573,39 +11551,35 @@
         <v>119</v>
       </c>
       <c r="B89" t="n">
-        <v>-2.96</v>
+        <v>-6.73</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>154</v>
       </c>
-      <c r="B90" t="n">
-        <v>-1.21</v>
-      </c>
+      <c r="B90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>174</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>123</v>
       </c>
-      <c r="B92" t="n">
-        <v>-6.72</v>
-      </c>
+      <c r="B92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>39</v>
       </c>
       <c r="B93" t="n">
-        <v>-9.31</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="94">
@@ -11613,7 +11587,7 @@
         <v>11</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.67</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="95">
@@ -11621,7 +11595,7 @@
         <v>22</v>
       </c>
       <c r="B95" t="n">
-        <v>-3.54</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="96">
@@ -11629,7 +11603,7 @@
         <v>63</v>
       </c>
       <c r="B96" t="n">
-        <v>-9.86</v>
+        <v>-13.72</v>
       </c>
     </row>
     <row r="97">
@@ -11637,7 +11611,7 @@
         <v>203</v>
       </c>
       <c r="B97" t="n">
-        <v>-2.01</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="98">
@@ -11645,7 +11619,7 @@
         <v>21</v>
       </c>
       <c r="B98" t="n">
-        <v>-4.55</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="99">
@@ -11653,7 +11627,7 @@
         <v>64</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.84</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="100">
@@ -11661,7 +11635,7 @@
         <v>103</v>
       </c>
       <c r="B100" t="n">
-        <v>-6.83</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="101">
@@ -11669,7 +11643,7 @@
         <v>144</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.48</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="102">
@@ -11677,7 +11651,7 @@
         <v>113</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.24</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="103">
@@ -11685,7 +11659,7 @@
         <v>179</v>
       </c>
       <c r="B103" t="n">
-        <v>-2.71</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="104">
@@ -11693,7 +11667,7 @@
         <v>183</v>
       </c>
       <c r="B104" t="n">
-        <v>-2.73</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="105">
@@ -11701,7 +11675,7 @@
         <v>198</v>
       </c>
       <c r="B105" t="n">
-        <v>-8</v>
+        <v>-8.83</v>
       </c>
     </row>
     <row r="106">
@@ -11709,7 +11683,7 @@
         <v>133</v>
       </c>
       <c r="B106" t="n">
-        <v>-1.72</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="107">
@@ -11717,31 +11691,27 @@
         <v>195</v>
       </c>
       <c r="B107" t="n">
-        <v>-8.31</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>146</v>
       </c>
-      <c r="B108" t="n">
-        <v>-3.21</v>
-      </c>
+      <c r="B108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>51</v>
       </c>
-      <c r="B109" t="n">
-        <v>1.96</v>
-      </c>
+      <c r="B109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>206</v>
       </c>
       <c r="B110" t="n">
-        <v>-2.46</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="111">
@@ -11749,7 +11719,7 @@
         <v>46</v>
       </c>
       <c r="B111" t="n">
-        <v>-5.67</v>
+        <v>-4.57</v>
       </c>
     </row>
     <row r="112">
@@ -11757,7 +11727,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>-5.17</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="113">
@@ -11765,7 +11735,7 @@
         <v>79</v>
       </c>
       <c r="B113" t="n">
-        <v>-4.73</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="114">
@@ -11773,7 +11743,7 @@
         <v>38</v>
       </c>
       <c r="B114" t="n">
-        <v>-4.62</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="115">
@@ -11781,7 +11751,7 @@
         <v>47</v>
       </c>
       <c r="B115" t="n">
-        <v>-4.12</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="116">
@@ -11789,7 +11759,7 @@
         <v>91</v>
       </c>
       <c r="B116" t="n">
-        <v>-3.33</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="117">
@@ -11797,7 +11767,7 @@
         <v>14</v>
       </c>
       <c r="B117" t="n">
-        <v>-8.27</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="118">
@@ -11805,23 +11775,21 @@
         <v>107</v>
       </c>
       <c r="B118" t="n">
-        <v>-3.18</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
         <v>163</v>
       </c>
-      <c r="B119" t="n">
-        <v>-2.67</v>
-      </c>
+      <c r="B119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
         <v>167</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.66</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="121">
@@ -11829,7 +11797,7 @@
         <v>178</v>
       </c>
       <c r="B121" t="n">
-        <v>-4.73</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="122">
@@ -11837,7 +11805,7 @@
         <v>111</v>
       </c>
       <c r="B122" t="n">
-        <v>-3.88</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="123">
@@ -11845,7 +11813,7 @@
         <v>62</v>
       </c>
       <c r="B123" t="n">
-        <v>-11.37</v>
+        <v>-11.24</v>
       </c>
     </row>
     <row r="124">
@@ -11853,7 +11821,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="n">
-        <v>-3.73</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="125">
@@ -11861,23 +11829,21 @@
         <v>152</v>
       </c>
       <c r="B125" t="n">
-        <v>-10.62</v>
+        <v>-10.19</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
         <v>129</v>
       </c>
-      <c r="B126" t="n">
-        <v>-1.39</v>
-      </c>
+      <c r="B126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
         <v>134</v>
       </c>
       <c r="B127" t="n">
-        <v>-4.57</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="128">
@@ -11885,7 +11851,7 @@
         <v>42</v>
       </c>
       <c r="B128" t="n">
-        <v>-13.73</v>
+        <v>-13.51</v>
       </c>
     </row>
     <row r="129">
@@ -11893,7 +11859,7 @@
         <v>197</v>
       </c>
       <c r="B129" t="n">
-        <v>-3.5</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="130">
@@ -11901,7 +11867,7 @@
         <v>208</v>
       </c>
       <c r="B130" t="n">
-        <v>-6.53</v>
+        <v>-5.14</v>
       </c>
     </row>
     <row r="131">
@@ -11909,7 +11875,7 @@
         <v>187</v>
       </c>
       <c r="B131" t="n">
-        <v>-1.92</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="132">
@@ -11917,7 +11883,7 @@
         <v>94</v>
       </c>
       <c r="B132" t="n">
-        <v>-3.41</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="133">
@@ -11925,7 +11891,7 @@
         <v>96</v>
       </c>
       <c r="B133" t="n">
-        <v>-3.95</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="134">
@@ -11933,7 +11899,7 @@
         <v>89</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="135">
@@ -11941,7 +11907,7 @@
         <v>155</v>
       </c>
       <c r="B135" t="n">
-        <v>-2.47</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="136">
@@ -11949,7 +11915,7 @@
         <v>30</v>
       </c>
       <c r="B136" t="n">
-        <v>-3.05</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="137">
@@ -11957,7 +11923,7 @@
         <v>158</v>
       </c>
       <c r="B137" t="n">
-        <v>-5.46</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="138">
@@ -11965,7 +11931,7 @@
         <v>66</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="139">
@@ -11973,7 +11939,7 @@
         <v>17</v>
       </c>
       <c r="B139" t="n">
-        <v>-2.35</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="140">
@@ -11981,31 +11947,27 @@
         <v>159</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
         <v>72</v>
       </c>
-      <c r="B141" t="n">
-        <v>-4.14</v>
-      </c>
+      <c r="B141"/>
     </row>
     <row r="142">
       <c r="A142" t="s">
         <v>120</v>
       </c>
-      <c r="B142" t="n">
-        <v>-3.57</v>
-      </c>
+      <c r="B142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
         <v>37</v>
       </c>
       <c r="B143" t="n">
-        <v>-5.4</v>
+        <v>-4.65</v>
       </c>
     </row>
     <row r="144">
@@ -12013,7 +11975,7 @@
         <v>6</v>
       </c>
       <c r="B144" t="n">
-        <v>-7.22</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="145">
@@ -12021,23 +11983,21 @@
         <v>156</v>
       </c>
       <c r="B145" t="n">
-        <v>0.29</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
         <v>121</v>
       </c>
-      <c r="B146" t="n">
-        <v>-2.43</v>
-      </c>
+      <c r="B146"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
         <v>61</v>
       </c>
       <c r="B147" t="n">
-        <v>-9.89</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="148">
@@ -12045,7 +12005,7 @@
         <v>184</v>
       </c>
       <c r="B148" t="n">
-        <v>-4.52</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="149">
@@ -12053,7 +12013,7 @@
         <v>157</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.06</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="150">
@@ -12061,7 +12021,7 @@
         <v>12</v>
       </c>
       <c r="B150" t="n">
-        <v>-5.02</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="151">
@@ -12069,7 +12029,7 @@
         <v>200</v>
       </c>
       <c r="B151" t="n">
-        <v>-3.54</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="152">
@@ -12077,23 +12037,21 @@
         <v>196</v>
       </c>
       <c r="B152" t="n">
-        <v>-3.32</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
         <v>132</v>
       </c>
-      <c r="B153" t="n">
-        <v>-6.12</v>
-      </c>
+      <c r="B153"/>
     </row>
     <row r="154">
       <c r="A154" t="s">
         <v>92</v>
       </c>
       <c r="B154" t="n">
-        <v>-2.63</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="155">
@@ -12101,7 +12059,7 @@
         <v>88</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.93</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="156">
@@ -12109,7 +12067,7 @@
         <v>25</v>
       </c>
       <c r="B156" t="n">
-        <v>-1.81</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="157">
@@ -12117,7 +12075,7 @@
         <v>54</v>
       </c>
       <c r="B157" t="n">
-        <v>-4.07</v>
+        <v>-3.98</v>
       </c>
     </row>
     <row r="158">
@@ -12125,7 +12083,7 @@
         <v>53</v>
       </c>
       <c r="B158" t="n">
-        <v>-3.99</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="159">
@@ -12133,7 +12091,7 @@
         <v>100</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.68</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="160">
@@ -12141,7 +12099,7 @@
         <v>50</v>
       </c>
       <c r="B160" t="n">
-        <v>-1.24</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="161">
@@ -12149,7 +12107,7 @@
         <v>55</v>
       </c>
       <c r="B161" t="n">
-        <v>-2.42</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="162">
@@ -12157,7 +12115,7 @@
         <v>106</v>
       </c>
       <c r="B162" t="n">
-        <v>-3.69</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="163">
@@ -12165,7 +12123,7 @@
         <v>75</v>
       </c>
       <c r="B163" t="n">
-        <v>-3.39</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="164">
@@ -12173,7 +12131,7 @@
         <v>71</v>
       </c>
       <c r="B164" t="n">
-        <v>-5.36</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="165">
@@ -12181,7 +12139,7 @@
         <v>84</v>
       </c>
       <c r="B165" t="n">
-        <v>-4.75</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="166">
@@ -12189,7 +12147,7 @@
         <v>101</v>
       </c>
       <c r="B166" t="n">
-        <v>-1.87</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="167">
@@ -12197,7 +12155,7 @@
         <v>182</v>
       </c>
       <c r="B167" t="n">
-        <v>-6.22</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="168">
@@ -12205,7 +12163,7 @@
         <v>116</v>
       </c>
       <c r="B168" t="n">
-        <v>-2.91</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="169">
@@ -12213,7 +12171,7 @@
         <v>175</v>
       </c>
       <c r="B169" t="n">
-        <v>-3.29</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="170">
@@ -12221,7 +12179,7 @@
         <v>104</v>
       </c>
       <c r="B170" t="n">
-        <v>-3.28</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="171">
@@ -12229,7 +12187,7 @@
         <v>28</v>
       </c>
       <c r="B171" t="n">
-        <v>-4.62</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="172">
@@ -12237,7 +12195,7 @@
         <v>86</v>
       </c>
       <c r="B172" t="n">
-        <v>-3.4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="173">
@@ -12245,7 +12203,7 @@
         <v>191</v>
       </c>
       <c r="B173" t="n">
-        <v>-3.81</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="174">
@@ -12253,7 +12211,7 @@
         <v>124</v>
       </c>
       <c r="B174" t="n">
-        <v>-4.11</v>
+        <v>-16.38</v>
       </c>
     </row>
     <row r="175">
@@ -12261,7 +12219,7 @@
         <v>117</v>
       </c>
       <c r="B175" t="n">
-        <v>-3.43</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="176">
@@ -12269,7 +12227,7 @@
         <v>192</v>
       </c>
       <c r="B176" t="n">
-        <v>-7.11</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="177">
@@ -12277,7 +12235,7 @@
         <v>189</v>
       </c>
       <c r="B177" t="n">
-        <v>-11.24</v>
+        <v>-10.15</v>
       </c>
     </row>
     <row r="178">
@@ -12285,7 +12243,7 @@
         <v>153</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.96</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="179">
@@ -12293,7 +12251,7 @@
         <v>33</v>
       </c>
       <c r="B179" t="n">
-        <v>-2.05</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="180">
@@ -12301,7 +12259,7 @@
         <v>204</v>
       </c>
       <c r="B180" t="n">
-        <v>-4.83</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="181">
@@ -12309,7 +12267,7 @@
         <v>85</v>
       </c>
       <c r="B181" t="n">
-        <v>-4.11</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="182">
@@ -12317,7 +12275,7 @@
         <v>145</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.33</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="183">
@@ -12325,7 +12283,7 @@
         <v>114</v>
       </c>
       <c r="B183" t="n">
-        <v>-4.08</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="184">
@@ -12333,7 +12291,7 @@
         <v>209</v>
       </c>
       <c r="B184" t="n">
-        <v>-7.19</v>
+        <v>-8.95</v>
       </c>
     </row>
     <row r="185">
@@ -12341,7 +12299,7 @@
         <v>59</v>
       </c>
       <c r="B185" t="n">
-        <v>-4.18</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="186">
@@ -12349,23 +12307,21 @@
         <v>112</v>
       </c>
       <c r="B186" t="n">
-        <v>-5.45</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
         <v>165</v>
       </c>
-      <c r="B187" t="n">
-        <v>-2.16</v>
-      </c>
+      <c r="B187"/>
     </row>
     <row r="188">
       <c r="A188" t="s">
         <v>166</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.28</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="189">
@@ -12373,7 +12329,7 @@
         <v>136</v>
       </c>
       <c r="B189" t="n">
-        <v>-12.21</v>
+        <v>-14.41</v>
       </c>
     </row>
     <row r="190">
@@ -12381,7 +12337,7 @@
         <v>8</v>
       </c>
       <c r="B190" t="n">
-        <v>-2.41</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="191">
@@ -12389,7 +12345,7 @@
         <v>170</v>
       </c>
       <c r="B191" t="n">
-        <v>-2.58</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="192">
@@ -12397,7 +12353,7 @@
         <v>186</v>
       </c>
       <c r="B192" t="n">
-        <v>-7.79</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="193">
@@ -12405,7 +12361,7 @@
         <v>190</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.69</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="194">
@@ -12413,7 +12369,7 @@
         <v>98</v>
       </c>
       <c r="B194" t="n">
-        <v>-2.48</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="195">
@@ -12421,23 +12377,21 @@
         <v>115</v>
       </c>
       <c r="B195" t="n">
-        <v>-2.65</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
         <v>128</v>
       </c>
-      <c r="B196" t="n">
-        <v>-2.05</v>
-      </c>
+      <c r="B196"/>
     </row>
     <row r="197">
       <c r="A197" t="s">
         <v>87</v>
       </c>
       <c r="B197" t="n">
-        <v>-7.63</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="198">
@@ -12445,31 +12399,27 @@
         <v>83</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.78</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
         <v>31</v>
       </c>
-      <c r="B199" t="n">
-        <v>-8.15</v>
-      </c>
+      <c r="B199"/>
     </row>
     <row r="200">
       <c r="A200" t="s">
         <v>127</v>
       </c>
-      <c r="B200" t="n">
-        <v>2.47</v>
-      </c>
+      <c r="B200"/>
     </row>
     <row r="201">
       <c r="A201" t="s">
         <v>160</v>
       </c>
       <c r="B201" t="n">
-        <v>-2.77</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="202">
@@ -12477,7 +12427,7 @@
         <v>16</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.61</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="203">
@@ -12485,23 +12435,21 @@
         <v>194</v>
       </c>
       <c r="B203" t="n">
-        <v>-3.57</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
         <v>74</v>
       </c>
-      <c r="B204" t="n">
-        <v>-0.93</v>
-      </c>
+      <c r="B204"/>
     </row>
     <row r="205">
       <c r="A205" t="s">
         <v>135</v>
       </c>
       <c r="B205" t="n">
-        <v>-3.36</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/fig_2_national_trend.xlsx
+++ b/outcome/fig_2_national_trend.xlsx
@@ -8,8 +8,6 @@
   <sheets>
     <sheet name="Incidence rate" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="DALYs rate" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="AAPC of incidence rate" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="AAPC of DALYs rate" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -9200,3260 +9198,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-3.35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.51</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.69</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-2.06</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-2.37</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-10.09</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-3.71</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-4.64</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.97</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-1.71</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-10.47</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.64</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="n">
-        <v>-3.97</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="n">
-        <v>-5.22</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-3.63</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="n">
-        <v>-4.33</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="n">
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-3.48</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-9.71</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-6.98</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-7.36</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-8.33</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-6.11</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-6.63</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-0.84</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" t="n">
-        <v>6.39</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-0.76</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-4.06</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-1.54</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-4.37</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-2.84</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" t="n">
-        <v>-3.57</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-7.49</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-1.14</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-14.22</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-12.72</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" t="n">
-        <v>-4.72</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" t="n">
-        <v>-7.08</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" t="n">
-        <v>-0.89</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-4.97</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-4.23</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-2.35</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-2.38</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" t="n">
-        <v>-0.69</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" t="n">
-        <v>-3.73</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" t="n">
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" t="n">
-        <v>-3.24</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-3.33</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-3.86</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-4.46</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-1.08</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-4.04</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-2.15</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" t="n">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96" t="n">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98" t="n">
-        <v>-3.91</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" t="n">
-        <v>-3.02</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104" t="n">
-        <v>-1.9</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107" t="n">
-        <v>-1.28</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>117</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-1.47</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>118</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-2.43</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>119</v>
-      </c>
-      <c r="B114" t="n">
-        <v>-2.15</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>120</v>
-      </c>
-      <c r="B115" t="n">
-        <v>-2.61</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>121</v>
-      </c>
-      <c r="B116"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>122</v>
-      </c>
-      <c r="B117" t="n">
-        <v>-2.31</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>123</v>
-      </c>
-      <c r="B118" t="n">
-        <v>-4.14</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>124</v>
-      </c>
-      <c r="B119" t="n">
-        <v>-2.92</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>125</v>
-      </c>
-      <c r="B120" t="n">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>126</v>
-      </c>
-      <c r="B121" t="n">
-        <v>-1.17</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122" t="n">
-        <v>4.84</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>128</v>
-      </c>
-      <c r="B123"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>129</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126" t="n">
-        <v>-1.52</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127" t="n">
-        <v>-2.88</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>133</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>134</v>
-      </c>
-      <c r="B129" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>135</v>
-      </c>
-      <c r="B130" t="n">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>136</v>
-      </c>
-      <c r="B131" t="n">
-        <v>-13.29</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>137</v>
-      </c>
-      <c r="B132" t="n">
-        <v>-3.6</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>138</v>
-      </c>
-      <c r="B133" t="n">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>139</v>
-      </c>
-      <c r="B134" t="n">
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>140</v>
-      </c>
-      <c r="B135" t="n">
-        <v>-2.03</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>141</v>
-      </c>
-      <c r="B136" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>142</v>
-      </c>
-      <c r="B137" t="n">
-        <v>-2.75</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>143</v>
-      </c>
-      <c r="B138" t="n">
-        <v>-2.15</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>144</v>
-      </c>
-      <c r="B139" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>145</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>146</v>
-      </c>
-      <c r="B141" t="n">
-        <v>-3.07</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>147</v>
-      </c>
-      <c r="B142" t="n">
-        <v>-6.16</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>148</v>
-      </c>
-      <c r="B143" t="n">
-        <v>-0.78</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>149</v>
-      </c>
-      <c r="B144" t="n">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>150</v>
-      </c>
-      <c r="B145" t="n">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>151</v>
-      </c>
-      <c r="B146" t="n">
-        <v>-3.02</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>152</v>
-      </c>
-      <c r="B147" t="n">
-        <v>-11.4</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>153</v>
-      </c>
-      <c r="B148" t="n">
-        <v>-0.73</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>154</v>
-      </c>
-      <c r="B149" t="n">
-        <v>2.28</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>155</v>
-      </c>
-      <c r="B150" t="n">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>156</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>157</v>
-      </c>
-      <c r="B152" t="n">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>158</v>
-      </c>
-      <c r="B153" t="n">
-        <v>-4.89</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>159</v>
-      </c>
-      <c r="B154" t="n">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>160</v>
-      </c>
-      <c r="B155" t="n">
-        <v>-2.79</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>161</v>
-      </c>
-      <c r="B156" t="n">
-        <v>-2.03</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>162</v>
-      </c>
-      <c r="B157" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>163</v>
-      </c>
-      <c r="B158" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>164</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>165</v>
-      </c>
-      <c r="B160" t="n">
-        <v>-1.26</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B161" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>167</v>
-      </c>
-      <c r="B162" t="n">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>168</v>
-      </c>
-      <c r="B163" t="n">
-        <v>-3.56</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>169</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>170</v>
-      </c>
-      <c r="B165" t="n">
-        <v>-0.81</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>171</v>
-      </c>
-      <c r="B166" t="n">
-        <v>-2.14</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>172</v>
-      </c>
-      <c r="B167" t="n">
-        <v>-1.98</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>173</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>174</v>
-      </c>
-      <c r="B169" t="n">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>175</v>
-      </c>
-      <c r="B170" t="n">
-        <v>-1.57</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>176</v>
-      </c>
-      <c r="B171" t="n">
-        <v>-1.66</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>177</v>
-      </c>
-      <c r="B172" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>178</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>179</v>
-      </c>
-      <c r="B174" t="n">
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>180</v>
-      </c>
-      <c r="B175" t="n">
-        <v>2.03</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>181</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>182</v>
-      </c>
-      <c r="B177" t="n">
-        <v>-1.56</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>183</v>
-      </c>
-      <c r="B178" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>184</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>185</v>
-      </c>
-      <c r="B180" t="n">
-        <v>-3.15</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>186</v>
-      </c>
-      <c r="B181" t="n">
-        <v>-3.53</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>187</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>188</v>
-      </c>
-      <c r="B183" t="n">
-        <v>-1.44</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>189</v>
-      </c>
-      <c r="B184" t="n">
-        <v>-9.24</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>190</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>191</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.58</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>192</v>
-      </c>
-      <c r="B187" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>193</v>
-      </c>
-      <c r="B188" t="n">
-        <v>-1.03</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>194</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>195</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-3.56</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>196</v>
-      </c>
-      <c r="B191" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>197</v>
-      </c>
-      <c r="B192" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>198</v>
-      </c>
-      <c r="B193" t="n">
-        <v>-3.04</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>199</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>200</v>
-      </c>
-      <c r="B195" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>201</v>
-      </c>
-      <c r="B196" t="n">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>202</v>
-      </c>
-      <c r="B197" t="n">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>203</v>
-      </c>
-      <c r="B198" t="n">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>204</v>
-      </c>
-      <c r="B199" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>205</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-2.91</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>206</v>
-      </c>
-      <c r="B201" t="n">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>207</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>208</v>
-      </c>
-      <c r="B203" t="n">
-        <v>-4.58</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>209</v>
-      </c>
-      <c r="B204" t="n">
-        <v>-8.17</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>210</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-3.21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-2.58</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-4.85</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-4.32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-1.72</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-1.99</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-5.45</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-4.67</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-7.8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-1.92</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-1.58</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-14.97</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-2.88</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-2.52</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-2.96</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-3.25</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-1.45</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.86</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="n">
-        <v>-2.19</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.65</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="n">
-        <v>-7.86</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-1.95</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="n">
-        <v>-3.64</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="n">
-        <v>-6.73</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-9.34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-3.88</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-3.43</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-2.93</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-2.48</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-1.78</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-2.94</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-4.98</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>201</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-1.59</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>205</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-4.55</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-1.02</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-1.43</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>210</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-0.81</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-2.19</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>148</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-7.47</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>172</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-4.41</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" t="n">
-        <v>5.71</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-8.3</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>150</v>
-      </c>
-      <c r="B62"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="n">
-        <v>-12.16</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-5.21</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-6.72</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-7.03</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-2.02</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" t="n">
-        <v>-4.92</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" t="n">
-        <v>-4.79</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-2.51</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>185</v>
-      </c>
-      <c r="B74" t="n">
-        <v>-6.06</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>141</v>
-      </c>
-      <c r="B75" t="n">
-        <v>-0.86</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" t="n">
-        <v>-5.41</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>202</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>193</v>
-      </c>
-      <c r="B79" t="n">
-        <v>-2.9</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>177</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>151</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-2.68</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>125</v>
-      </c>
-      <c r="B82"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>69</v>
-      </c>
-      <c r="B83"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>52</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-2.37</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>73</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-2.25</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>110</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>199</v>
-      </c>
-      <c r="B87" t="n">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-1.47</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-6.73</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>154</v>
-      </c>
-      <c r="B90"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>174</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>123</v>
-      </c>
-      <c r="B92"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>39</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-6.06</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>11</v>
-      </c>
-      <c r="B94" t="n">
-        <v>-1.63</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" t="n">
-        <v>-1.87</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>63</v>
-      </c>
-      <c r="B96" t="n">
-        <v>-13.72</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>203</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" t="n">
-        <v>-5.79</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>64</v>
-      </c>
-      <c r="B99" t="n">
-        <v>-0.47</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" t="n">
-        <v>-4.54</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>144</v>
-      </c>
-      <c r="B101" t="n">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>113</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>179</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>183</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>198</v>
-      </c>
-      <c r="B105" t="n">
-        <v>-8.83</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>133</v>
-      </c>
-      <c r="B106" t="n">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>195</v>
-      </c>
-      <c r="B107" t="n">
-        <v>-6.15</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>146</v>
-      </c>
-      <c r="B108"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>51</v>
-      </c>
-      <c r="B109"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>206</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-0.77</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>46</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-4.57</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-2.8</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>79</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-2.43</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>38</v>
-      </c>
-      <c r="B114" t="n">
-        <v>-4.8</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>47</v>
-      </c>
-      <c r="B115" t="n">
-        <v>-2.19</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>91</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117" t="n">
-        <v>-2.62</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>107</v>
-      </c>
-      <c r="B118" t="n">
-        <v>-0.47</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>163</v>
-      </c>
-      <c r="B119"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>167</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>178</v>
-      </c>
-      <c r="B121" t="n">
-        <v>-1.21</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>111</v>
-      </c>
-      <c r="B122" t="n">
-        <v>-1.52</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>62</v>
-      </c>
-      <c r="B123" t="n">
-        <v>-11.24</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>58</v>
-      </c>
-      <c r="B124" t="n">
-        <v>-4.06</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>152</v>
-      </c>
-      <c r="B125" t="n">
-        <v>-10.19</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>129</v>
-      </c>
-      <c r="B126"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>134</v>
-      </c>
-      <c r="B127" t="n">
-        <v>-2.42</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>42</v>
-      </c>
-      <c r="B128" t="n">
-        <v>-13.51</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>197</v>
-      </c>
-      <c r="B129" t="n">
-        <v>-0.72</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>208</v>
-      </c>
-      <c r="B130" t="n">
-        <v>-5.14</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>187</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>94</v>
-      </c>
-      <c r="B132" t="n">
-        <v>-1.53</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>96</v>
-      </c>
-      <c r="B133" t="n">
-        <v>-1.73</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>89</v>
-      </c>
-      <c r="B134" t="n">
-        <v>3.66</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>155</v>
-      </c>
-      <c r="B135" t="n">
-        <v>-1.17</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>30</v>
-      </c>
-      <c r="B136" t="n">
-        <v>-2.88</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>158</v>
-      </c>
-      <c r="B137" t="n">
-        <v>-4.85</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>66</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>17</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>159</v>
-      </c>
-      <c r="B140" t="n">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>72</v>
-      </c>
-      <c r="B141"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>120</v>
-      </c>
-      <c r="B142"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>37</v>
-      </c>
-      <c r="B143" t="n">
-        <v>-4.65</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" t="n">
-        <v>-4.92</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>156</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>121</v>
-      </c>
-      <c r="B146"/>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>61</v>
-      </c>
-      <c r="B147" t="n">
-        <v>-6.08</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>184</v>
-      </c>
-      <c r="B148" t="n">
-        <v>-1.23</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>157</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>12</v>
-      </c>
-      <c r="B150" t="n">
-        <v>-3.15</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>200</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>196</v>
-      </c>
-      <c r="B152" t="n">
-        <v>-0.72</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>132</v>
-      </c>
-      <c r="B153"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>92</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>88</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>25</v>
-      </c>
-      <c r="B156" t="n">
-        <v>-0.72</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>54</v>
-      </c>
-      <c r="B157" t="n">
-        <v>-3.98</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>53</v>
-      </c>
-      <c r="B158" t="n">
-        <v>-3.18</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>100</v>
-      </c>
-      <c r="B159" t="n">
-        <v>2.28</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>50</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>55</v>
-      </c>
-      <c r="B161" t="n">
-        <v>-2.05</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>106</v>
-      </c>
-      <c r="B162" t="n">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>75</v>
-      </c>
-      <c r="B163" t="n">
-        <v>-0.54</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>71</v>
-      </c>
-      <c r="B164" t="n">
-        <v>-3.8</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>84</v>
-      </c>
-      <c r="B165" t="n">
-        <v>-2.84</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>101</v>
-      </c>
-      <c r="B166" t="n">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>182</v>
-      </c>
-      <c r="B167" t="n">
-        <v>-3.41</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>116</v>
-      </c>
-      <c r="B168" t="n">
-        <v>-0.62</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>175</v>
-      </c>
-      <c r="B169" t="n">
-        <v>-1.38</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>104</v>
-      </c>
-      <c r="B170" t="n">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>28</v>
-      </c>
-      <c r="B171" t="n">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>86</v>
-      </c>
-      <c r="B172" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>191</v>
-      </c>
-      <c r="B173" t="n">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>124</v>
-      </c>
-      <c r="B174" t="n">
-        <v>-16.38</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>117</v>
-      </c>
-      <c r="B175" t="n">
-        <v>-1.15</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>192</v>
-      </c>
-      <c r="B176" t="n">
-        <v>-3.37</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>189</v>
-      </c>
-      <c r="B177" t="n">
-        <v>-10.15</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>153</v>
-      </c>
-      <c r="B178" t="n">
-        <v>-1.17</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>33</v>
-      </c>
-      <c r="B179" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>204</v>
-      </c>
-      <c r="B180" t="n">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>85</v>
-      </c>
-      <c r="B181" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>145</v>
-      </c>
-      <c r="B182" t="n">
-        <v>-0.79</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>114</v>
-      </c>
-      <c r="B183" t="n">
-        <v>-1.01</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>209</v>
-      </c>
-      <c r="B184" t="n">
-        <v>-8.95</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>59</v>
-      </c>
-      <c r="B185" t="n">
-        <v>-1.72</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>112</v>
-      </c>
-      <c r="B186" t="n">
-        <v>-2.38</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>165</v>
-      </c>
-      <c r="B187"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>166</v>
-      </c>
-      <c r="B188" t="n">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>136</v>
-      </c>
-      <c r="B189" t="n">
-        <v>-14.41</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>8</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-0.79</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>170</v>
-      </c>
-      <c r="B191" t="n">
-        <v>-0.74</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>186</v>
-      </c>
-      <c r="B192" t="n">
-        <v>-5.65</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>190</v>
-      </c>
-      <c r="B193" t="n">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>98</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>115</v>
-      </c>
-      <c r="B195" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>128</v>
-      </c>
-      <c r="B196"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>87</v>
-      </c>
-      <c r="B197" t="n">
-        <v>-5.94</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>83</v>
-      </c>
-      <c r="B198" t="n">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>31</v>
-      </c>
-      <c r="B199"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>127</v>
-      </c>
-      <c r="B200"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>160</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-2.19</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>16</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>194</v>
-      </c>
-      <c r="B203" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>74</v>
-      </c>
-      <c r="B204"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>135</v>
-      </c>
-      <c r="B205" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
 </file>